--- a/TaskNote.xlsx
+++ b/TaskNote.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ithoangtan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ithoangtan\Documents\1TLCNCNPM\KinhDoanhTourDuLich\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Tuần 1</t>
   </si>
@@ -43,17 +42,47 @@
   </si>
   <si>
     <t>Xác định được tên đề tài</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
   </si>
   <si>
     <t>- Khảo sát hiện trạng
 - Usecase diagram
 - Tìm hiểu về công nghệ thực hiện đề tài (React.js và Node.js
 - Sequence diagram
-- Class diagram
-- Data Flow diagram</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
+- Class diagram</t>
+  </si>
+  <si>
+    <t>Tuần 6</t>
+  </si>
+  <si>
+    <t>-Database
+-UI
+-Back-end API</t>
+  </si>
+  <si>
+    <t>Tuần 8</t>
+  </si>
+  <si>
+    <t>-Code Front-end with React</t>
+  </si>
+  <si>
+    <t>- Hoàn thành khảo sát hiện trạng (3 trang)
+- Hoàn thành usecase diagram
+- Đặc tả một số usecase (chờ thầy nhận  xét)
+- Tìm hiểu Node và React
+- 80% Class diagram (chờ thầy nhận xét)
+- Sequence diagram của một vài chức năng (chờ thầy nhận xét)</t>
+  </si>
+  <si>
+    <t>- Đã vẽ xong database
+- Đang tiến hành tìm và thiết 
+kế giao diện các trang chính(trang chủ, trang chi tiết tuor, trang cart) và trang quản lý
+- Xong demo RESTful API thêm xóa sửa Tour</t>
+  </si>
+  <si>
+    <t>- Chờ chuyển sang .jsx</t>
   </si>
 </sst>
 </file>
@@ -117,13 +146,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -134,6 +159,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,230 +450,244 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="5"/>
+    <col min="1" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="54.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="225" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="150" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="131.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TaskNote.xlsx
+++ b/TaskNote.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Tuần 1</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Tuần 8</t>
-  </si>
-  <si>
-    <t>-Code Front-end with React</t>
   </si>
   <si>
     <t>- Hoàn thành khảo sát hiện trạng (3 trang)
@@ -83,6 +80,51 @@
   </si>
   <si>
     <t>- Chờ chuyển sang .jsx</t>
+  </si>
+  <si>
+    <t>Tuần 9</t>
+  </si>
+  <si>
+    <t>-Code UI</t>
+  </si>
+  <si>
+    <t>-Create database with MySQL
+-Code Front-end with React</t>
+  </si>
+  <si>
+    <t>- xong CSDL
+'-xong UI and Admin page</t>
+  </si>
+  <si>
+    <t>Tuần 10</t>
+  </si>
+  <si>
+    <t>-Code Back-end API full
+-Code Front-end full page</t>
+  </si>
+  <si>
+    <t>Tuần 11</t>
+  </si>
+  <si>
+    <t>-Code hoàn thiện</t>
+  </si>
+  <si>
+    <t>-Database hoàn thiện</t>
+  </si>
+  <si>
+    <t>Tuần 12</t>
+  </si>
+  <si>
+    <t>Tuần 13</t>
+  </si>
+  <si>
+    <t>-Báo cáo hoàn thiện</t>
+  </si>
+  <si>
+    <t>Tuần 14</t>
+  </si>
+  <si>
+    <t>-Xong!</t>
   </si>
 </sst>
 </file>
@@ -450,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -502,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -517,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -529,28 +571,38 @@
         <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
@@ -558,8 +610,12 @@
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
@@ -567,8 +623,12 @@
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
@@ -576,8 +636,12 @@
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
@@ -585,8 +649,12 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
